--- a/biology/Zoologie/Chilabothrus_strigilatus/Chilabothrus_strigilatus.xlsx
+++ b/biology/Zoologie/Chilabothrus_strigilatus/Chilabothrus_strigilatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chilabothrus strigilatus est une espèce de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chilabothrus strigilatus est une espèce de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Bahamas[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Bahamas.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (2 août 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (2 août 2013) :
 Chilabothrus strigilatus ailurus (Sheplan &amp; Schwartz, 1974)
 Chilabothrus strigilatus fosteri (Barbour, 1941)
 Chilabothrus strigilatus fowleri (Sheplan &amp; Schwartz, 1974)
@@ -577,7 +593,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barbour, 1941 : A new boa from the Bahamas. Proceedings of the New England Zoological Club, vol. 18, p. 61-65.
 Cope, 1863 "1862"  : Synopsis of the species of Holcosus and Ameiva, with diagnoses of new West Indian and South American Colubridae. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 14, p. 60-82 (texte intégral).
